--- a/po_analysis_by_asin/B083NLHMG7_po_data.xlsx
+++ b/po_analysis_by_asin/B083NLHMG7_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,30 +538,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B15" t="n">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -573,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,14 +601,6 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>120</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B083NLHMG7_po_data.xlsx
+++ b/po_analysis_by_asin/B083NLHMG7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -599,6 +600,313 @@
       </c>
       <c r="B5" t="n">
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.018878910469551</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.01251135293588</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.680734483284628</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.13490237036411</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.945618220851405</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.73639342312244</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.84202082441309</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.07686981246002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.517563325894548</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.47241291772275</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.25043154800635</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.68889730106898</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.81386189811197</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.61683529399146</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.81883006831324</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.52693782752977</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.77914575908892</v>
+      </c>
+      <c r="D10" t="n">
+        <v>27.54343812521013</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.12765543914259</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.8443602896808</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.55696831438053</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29.78428763074105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16.40345307287751</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30.56465931193337</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17.11591326715587</v>
+      </c>
+      <c r="D14" t="n">
+        <v>31.86972738665445</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17.9479147914911</v>
+      </c>
+      <c r="D15" t="n">
+        <v>32.499928149304</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>26</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18.72773933102568</v>
+      </c>
+      <c r="D16" t="n">
+        <v>33.32917561712281</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19.60648537009028</v>
+      </c>
+      <c r="D17" t="n">
+        <v>34.33853156289376</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>28</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20.67730650809467</v>
+      </c>
+      <c r="D18" t="n">
+        <v>34.9094021076248</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>29</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21.93260838120542</v>
+      </c>
+      <c r="D19" t="n">
+        <v>36.06413431988089</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>30</v>
+      </c>
+      <c r="C20" t="n">
+        <v>22.6566432746374</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.44784044725649</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083NLHMG7_po_data.xlsx
+++ b/po_analysis_by_asin/B083NLHMG7_po_data.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,16 +632,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -650,12 +640,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.018878910469551</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.01251135293588</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -664,12 +648,6 @@
       <c r="B3" t="n">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
-        <v>4.680734483284628</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.13490237036411</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -678,12 +656,6 @@
       <c r="B4" t="n">
         <v>13</v>
       </c>
-      <c r="C4" t="n">
-        <v>5.945618220851405</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.73639342312244</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -692,12 +664,6 @@
       <c r="B5" t="n">
         <v>14</v>
       </c>
-      <c r="C5" t="n">
-        <v>6.84202082441309</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.07686981246002</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -706,12 +672,6 @@
       <c r="B6" t="n">
         <v>16</v>
       </c>
-      <c r="C6" t="n">
-        <v>8.517563325894548</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.47241291772275</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -720,12 +680,6 @@
       <c r="B7" t="n">
         <v>17</v>
       </c>
-      <c r="C7" t="n">
-        <v>10.25043154800635</v>
-      </c>
-      <c r="D7" t="n">
-        <v>24.68889730106898</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -734,12 +688,6 @@
       <c r="B8" t="n">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
-        <v>11.81386189811197</v>
-      </c>
-      <c r="D8" t="n">
-        <v>26.61683529399146</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -748,12 +696,6 @@
       <c r="B9" t="n">
         <v>20</v>
       </c>
-      <c r="C9" t="n">
-        <v>12.81883006831324</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27.52693782752977</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -762,12 +704,6 @@
       <c r="B10" t="n">
         <v>21</v>
       </c>
-      <c r="C10" t="n">
-        <v>13.77914575908892</v>
-      </c>
-      <c r="D10" t="n">
-        <v>27.54343812521013</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -776,12 +712,6 @@
       <c r="B11" t="n">
         <v>22</v>
       </c>
-      <c r="C11" t="n">
-        <v>14.12765543914259</v>
-      </c>
-      <c r="D11" t="n">
-        <v>28.8443602896808</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -790,12 +720,6 @@
       <c r="B12" t="n">
         <v>23</v>
       </c>
-      <c r="C12" t="n">
-        <v>15.55696831438053</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.78428763074105</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -804,12 +728,6 @@
       <c r="B13" t="n">
         <v>24</v>
       </c>
-      <c r="C13" t="n">
-        <v>16.40345307287751</v>
-      </c>
-      <c r="D13" t="n">
-        <v>30.56465931193337</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -818,12 +736,6 @@
       <c r="B14" t="n">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
-        <v>17.11591326715587</v>
-      </c>
-      <c r="D14" t="n">
-        <v>31.86972738665445</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -832,12 +744,6 @@
       <c r="B15" t="n">
         <v>25</v>
       </c>
-      <c r="C15" t="n">
-        <v>17.9479147914911</v>
-      </c>
-      <c r="D15" t="n">
-        <v>32.499928149304</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -846,12 +752,6 @@
       <c r="B16" t="n">
         <v>26</v>
       </c>
-      <c r="C16" t="n">
-        <v>18.72773933102568</v>
-      </c>
-      <c r="D16" t="n">
-        <v>33.32917561712281</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -860,12 +760,6 @@
       <c r="B17" t="n">
         <v>27</v>
       </c>
-      <c r="C17" t="n">
-        <v>19.60648537009028</v>
-      </c>
-      <c r="D17" t="n">
-        <v>34.33853156289376</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -874,12 +768,6 @@
       <c r="B18" t="n">
         <v>28</v>
       </c>
-      <c r="C18" t="n">
-        <v>20.67730650809467</v>
-      </c>
-      <c r="D18" t="n">
-        <v>34.9094021076248</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -888,12 +776,6 @@
       <c r="B19" t="n">
         <v>29</v>
       </c>
-      <c r="C19" t="n">
-        <v>21.93260838120542</v>
-      </c>
-      <c r="D19" t="n">
-        <v>36.06413431988089</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -901,12 +783,6 @@
       </c>
       <c r="B20" t="n">
         <v>30</v>
-      </c>
-      <c r="C20" t="n">
-        <v>22.6566432746374</v>
-      </c>
-      <c r="D20" t="n">
-        <v>36.44784044725649</v>
       </c>
     </row>
   </sheetData>
